--- a/Machine Learning Project Checklist.xlsx
+++ b/Machine Learning Project Checklist.xlsx
@@ -8,25 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Simplification\Data Science Journey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE9C7E67-B890-4479-B0FE-BCFDD252B960}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB348D6-CC18-4EFE-BC1A-2354043AD949}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ML Checklist" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'ML Checklist'!$A$2:$F$20</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'ML Checklist'!$4:$4</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="64">
-  <si>
-    <t>Last updated 2/27/2020</t>
-  </si>
-  <si>
-    <t>Created by Patrick de Guzman</t>
-  </si>
   <si>
     <t>To download: Toolbar &gt; File &gt; Download &gt; (Desired File Type)</t>
   </si>
@@ -63,6 +61,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Business &amp; Data Understanding</t>
     </r>
@@ -82,6 +81,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 • Are you simply exploring the data?
@@ -93,6 +93,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 • How many features should I expect?</t>
@@ -223,6 +224,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">)
 • The goal here is to figure out your strategy for dealing with missing values since most ML algorithms cannot handle them.
@@ -242,6 +244,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> them or </t>
     </r>
@@ -259,6 +262,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> them
       - For </t>
@@ -277,6 +281,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">: skip below under </t>
     </r>
@@ -294,6 +299,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> for some imputation strategies
       - For </t>
@@ -312,6 +318,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>: try your best to critically think if removing is the best option for you
             ▫ Are there many missing values in one column?
@@ -536,12 +543,18 @@
   <si>
     <t>https://github.com/nabeelkhan</t>
   </si>
+  <si>
+    <t>Last updated 26/12/2020</t>
+  </si>
+  <si>
+    <t>Created by Nabeel Khan</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -641,6 +654,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -663,12 +682,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF588894"/>
-        <bgColor rgb="FF588894"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor rgb="FFF2F2F2"/>
       </patternFill>
@@ -677,6 +690,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFE0EAEF"/>
         <bgColor rgb="FFE0EAEF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor rgb="FF588894"/>
       </patternFill>
     </fill>
   </fills>
@@ -767,7 +786,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -784,13 +803,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -802,20 +815,11 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -827,14 +831,26 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1053,11 +1069,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:I1002"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1077,295 +1094,295 @@
     </row>
     <row r="2" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="4" t="s">
-        <v>1</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="24" t="s">
-        <v>63</v>
+      <c r="F3" s="16" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="20.25" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="E4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="F4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="7" t="s">
+    </row>
+    <row r="5" spans="2:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="B5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="C5" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="2:9" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="B5" s="8" t="s">
+      <c r="D5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="E5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="F5" s="10"/>
+    </row>
+    <row r="6" spans="2:9" ht="48" x14ac:dyDescent="0.2">
+      <c r="B6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="D6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="12"/>
-    </row>
-    <row r="6" spans="2:9" ht="48" x14ac:dyDescent="0.2">
-      <c r="B6" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="9" t="s">
+      <c r="E6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="F6" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="11" t="s">
+    </row>
+    <row r="7" spans="2:9" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="B7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="D7" s="11" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="2:9" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="B7" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="21" t="s">
+      <c r="E7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="F7" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="11" t="s">
+    </row>
+    <row r="8" spans="2:9" ht="132" x14ac:dyDescent="0.2">
+      <c r="B8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="22"/>
+      <c r="D8" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="E8" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="2:9" ht="132" x14ac:dyDescent="0.2">
-      <c r="B8" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="13" t="s">
+      <c r="F8" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="13" t="s">
+    </row>
+    <row r="9" spans="2:9" ht="96" x14ac:dyDescent="0.2">
+      <c r="B9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="22"/>
+      <c r="D9" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="E9" s="11" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" ht="60" x14ac:dyDescent="0.2">
-      <c r="B9" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="13" t="s">
+      <c r="F9" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="13" t="s">
+    </row>
+    <row r="10" spans="2:9" ht="168" x14ac:dyDescent="0.2">
+      <c r="B10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="22"/>
+      <c r="D10" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="E10" s="11" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="2:9" ht="168" x14ac:dyDescent="0.2">
-      <c r="B10" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="13" t="s">
+      <c r="F10" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="13" t="s">
+    </row>
+    <row r="11" spans="2:9" ht="140.25" x14ac:dyDescent="0.2">
+      <c r="B11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="23"/>
+      <c r="D11" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="E11" s="11" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="11" spans="2:9" ht="140.25" x14ac:dyDescent="0.2">
-      <c r="B11" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="13" t="s">
+      <c r="F11" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="13" t="s">
+    </row>
+    <row r="12" spans="2:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B12" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="D12" s="11" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="12" spans="2:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B12" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="9" t="s">
+      <c r="E12" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="F12" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="13" t="s">
+    </row>
+    <row r="13" spans="2:9" ht="132" x14ac:dyDescent="0.2">
+      <c r="B13" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="D13" s="11" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="13" spans="2:9" ht="132" x14ac:dyDescent="0.2">
-      <c r="B13" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="21" t="s">
+      <c r="E13" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="F13" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="G13" s="12"/>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="2:9" ht="72" x14ac:dyDescent="0.2">
+      <c r="B14" s="6"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="E14" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="G13" s="17"/>
-      <c r="H13" s="18"/>
-    </row>
-    <row r="14" spans="2:9" ht="72" x14ac:dyDescent="0.2">
-      <c r="B14" s="8"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="13" t="s">
+      <c r="F14" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="I14" s="14"/>
+    </row>
+    <row r="15" spans="2:9" ht="180" x14ac:dyDescent="0.2">
+      <c r="B15" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="22"/>
+      <c r="D15" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="E15" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="I14" s="19"/>
-    </row>
-    <row r="15" spans="2:9" ht="168" x14ac:dyDescent="0.2">
-      <c r="B15" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="13" t="s">
+      <c r="F15" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="13" t="s">
+    </row>
+    <row r="16" spans="2:9" ht="84" x14ac:dyDescent="0.2">
+      <c r="B16" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="23"/>
+      <c r="D16" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="E16" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="16" spans="2:9" ht="84" x14ac:dyDescent="0.2">
-      <c r="B16" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="23"/>
-      <c r="D16" s="13" t="s">
+      <c r="F16" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="13" t="s">
+    </row>
+    <row r="17" spans="2:6" ht="144" x14ac:dyDescent="0.2">
+      <c r="B17" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F16" s="14" t="s">
+      <c r="D17" s="11" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="17" spans="2:6" ht="144" x14ac:dyDescent="0.2">
-      <c r="B17" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="9" t="s">
+      <c r="E17" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="F17" s="10"/>
+    </row>
+    <row r="18" spans="2:6" ht="84" x14ac:dyDescent="0.2">
+      <c r="B18" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="D18" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F17" s="12"/>
-    </row>
-    <row r="18" spans="2:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B18" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="9" t="s">
+      <c r="E18" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="F18" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="E18" s="13" t="s">
+    </row>
+    <row r="19" spans="2:6" ht="84" x14ac:dyDescent="0.2">
+      <c r="B19" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F18" s="14" t="s">
+      <c r="D19" s="11" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="19" spans="2:6" ht="84" x14ac:dyDescent="0.2">
-      <c r="B19" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="9" t="s">
+      <c r="E19" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="F19" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="E19" s="13" t="s">
+    </row>
+    <row r="20" spans="2:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B20" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F19" s="14" t="s">
+      <c r="D20" s="11" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="20" spans="2:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B20" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="9" t="s">
+      <c r="E20" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="E20" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="F20" s="12"/>
+      <c r="F20" s="10"/>
     </row>
     <row r="21" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B21" s="1"/>
@@ -8249,6 +8266,8 @@
   <hyperlinks>
     <hyperlink ref="F3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="74" fitToHeight="0" orientation="landscape" r:id="rId2"/>
 </worksheet>
 </file>